--- a/src/analysis_examples/circadb/results_jtk/cosinor_10355998_fam124b_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10355998_fam124b_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3170484557322461, 0.4209963444904536]</t>
+          <t>[0.3176996943604405, 0.4203451058622592]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.45727874212298e-12</v>
+        <v>1.143085626154061e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.45727874212298e-12</v>
+        <v>1.143085626154061e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-1.270473905956233</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4209399442533377, 0.48033376158026797]</t>
+          <t>[0.4209652818678639, 0.48030842396574175]</t>
         </is>
       </c>
       <c r="U2" t="n">
